--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -364,14 +364,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
-        <f ca="1">[1]!fff()</f>
-        <v>#NAME?</v>
+      <c r="A1">
+        <f>[1]!fff()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
